--- a/src/main/resources/excel/student_export.xlsx
+++ b/src/main/resources/excel/student_export.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanzhou/IdeaProjects/privateSchool/src/main/resources/excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14260"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19140"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>学号</t>
   </si>
@@ -61,77 +69,13 @@
   </si>
   <si>
     <t>qq号码</t>
-  </si>
-  <si>
-    <t>&lt;jt:forEach items="${dataList}" var="item"&gt;${item.sid}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.gradeName}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.className}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.name}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.job}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.phone}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.scn}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.birthTown}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.people}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.homeTown}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.address}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>微信号码</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>${item.qq}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.wechat}&lt;/jt:forEach&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.gender==0?"男":"女"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.birthStr}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>家长姓名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.parentName}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -232,7 +176,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1420,17 +1364,17 @@
   <dimension ref="A1:IV2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16" width="8.75" style="4" customWidth="1"/>
     <col min="17" max="19" width="9.375" style="4" customWidth="1"/>
     <col min="20" max="256" width="9.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20" customHeight="1">
+    <row r="1" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1444,7 +1388,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -1477,58 +1421,26 @@
         <v>13</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>27</v>
-      </c>
+    <row r="2" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1537,10 +1449,5 @@
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>